--- a/Nevasa/InformeCompleto/20250305/20250305_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250305/20250305_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,26 +536,26 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45722</v>
+        <v>45721</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45721</v>
       </c>
       <c r="D3" t="n">
-        <v>2.43</v>
+        <v>0.43</v>
       </c>
       <c r="E3" t="n">
-        <v>30000</v>
+        <v>135019350</v>
       </c>
       <c r="F3" t="n">
-        <v>1119941036</v>
+        <v>135000000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BSECD20319</t>
+          <t>PACTO_06032025_05032025_0.43_AHORRO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>PACTO</t>
         </is>
       </c>
     </row>
@@ -576,26 +576,26 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45721</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="E4" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F4" t="n">
-        <v>760035856</v>
+        <v>1119941036</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BSECC30721</t>
+          <t>BSECD20319</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>INSTRUMENTO FINANCIERO</t>
+          <t>RENTA FIJA</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>200000000</v>
+        <v>20000</v>
       </c>
       <c r="F5" t="n">
-        <v>199508273</v>
+        <v>760035856</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BBTG-F1220</t>
+          <t>BSECC30721</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -665,17 +665,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>430000000</v>
+        <v>200000000</v>
       </c>
       <c r="F6" t="n">
-        <v>456278986</v>
+        <v>199508273</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BCAJBP0922</t>
+          <t>BBTG-F1220</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50000000</v>
+        <v>430000000</v>
       </c>
       <c r="F7" t="n">
-        <v>53055696</v>
+        <v>456278986</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20000000</v>
+        <v>50000000</v>
       </c>
       <c r="F8" t="n">
-        <v>21222278</v>
+        <v>53055696</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -785,17 +785,17 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>26000</v>
+        <v>20000000</v>
       </c>
       <c r="F9" t="n">
-        <v>983186730</v>
+        <v>21222278</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BITADB0919</t>
+          <t>BCAJBP0922</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -825,27 +825,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19297096</v>
+        <v>26000</v>
       </c>
       <c r="F10" t="n">
-        <v>19290316</v>
+        <v>983186730</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VAPORES</t>
+          <t>BITADB0919</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SIMULTANEA</t>
+          <t>INSTRUMENTO FINANCIERO</t>
         </is>
       </c>
     </row>
@@ -862,20 +862,20 @@
         <v>45721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2400000000</v>
+        <v>19297096</v>
       </c>
       <c r="F11" t="n">
-        <v>2398351134</v>
+        <v>19290316</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BNPDBC100325</t>
+          <t>VAPORES</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -902,25 +902,25 @@
         <v>45721</v>
       </c>
       <c r="D12" t="n">
-        <v>16948.89</v>
+        <v>0.4125</v>
       </c>
       <c r="E12" t="n">
-        <v>26791</v>
+        <v>2400000000</v>
       </c>
       <c r="F12" t="n">
-        <v>454077713</v>
+        <v>2398351134</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CFINHRFLA</t>
+          <t>BNPDBC100325</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -945,10 +945,10 @@
         <v>16948.89</v>
       </c>
       <c r="E13" t="n">
-        <v>6419</v>
+        <v>26791</v>
       </c>
       <c r="F13" t="n">
-        <v>108794925</v>
+        <v>454077713</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -982,28 +982,68 @@
         <v>45721</v>
       </c>
       <c r="D14" t="n">
+        <v>16948.89</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6419</v>
+      </c>
+      <c r="F14" t="n">
+        <v>108794925</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="D15" t="n">
         <v>16397.68</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>242</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>3968239</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>CFINHRFLB</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>RENTA VARIABLE</t>
         </is>
